--- a/biology/Botanique/Gibberella_avenacea/Gibberella_avenacea.xlsx
+++ b/biology/Botanique/Gibberella_avenacea/Gibberella_avenacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gibberella avenacea est une espèce de champignons acsomycètes phytopathogènes de la famille des Nectriaceae. La forme asexuée correspondante (anamorphe) est Fusarium avenaceum.
 Ce champignon, souvent associé à d'autres fusariums, affecte de très nombreuses plantes cultivées, dont le blé, le maïs, le framboisier, le peuplier, etc. C'est l'un des agents responsables du flétrissement fusarien chez la pomme de terre.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (22 sept. 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 sept. 2011) :
 Fusarium avenaceum
 Fusarium cf. avenaceum HY046-07</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fusarium avenaceum,
 Fusarium avenaceum f. fabae,
